--- a/biology/Botanique/Calophyllaceae/Calophyllaceae.xlsx
+++ b/biology/Botanique/Calophyllaceae/Calophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calophyllaceae forment une famille de plantes à fleurs de l'ordre des Malpighiales.
 Ce sont des arbres ou des arbustes à feuilles entières, opposées, spiralées, exstipulées, originaires des régions tropicales et subtropicales d’Afrique et d’Amérique du Sud.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Calophyllum qui dérive du grec κάλλο, κάλλος / kallo, kallos, beauté, et φύλλων / fyllon, feuille.
 </t>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 novembre 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 novembre 2015) :
 genre Calophyllum
 genre Caraipa
 genre Clusiella
@@ -557,7 +573,7 @@
 genre Mammea
 genre Marila
 genre Mesua
-Selon Angiosperm Phylogeny Website                        (8 novembre 2015)[2] :
+Selon Angiosperm Phylogeny Website                        (8 novembre 2015) :
 genre Calophyllum L.
 genre Caraipa Aublet
 genre Clusiella Planchon &amp; Triana
@@ -599,9 +615,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 mai 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 mai 2010) :
 genre Calophyllum
 Calophyllum antillanum
 Calophyllum austrocoriaceum
